--- a/homeworks/CF_HW_5_2022_Ans.xlsx
+++ b/homeworks/CF_HW_5_2022_Ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DB95E3-3811-4A42-A008-0B7C38FAF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA19D9-D472-7846-89D8-4D23E26A4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="27280" windowHeight="26620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23560" yWindow="460" windowWidth="22400" windowHeight="26620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="226">
   <si>
     <t>Corporate Finance</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t>Acc Rec (BS)</t>
-  </si>
-  <si>
-    <t>Sales (IS)</t>
   </si>
   <si>
     <t>DPO: (365*AP)/Sales</t>
@@ -879,9 +876,6 @@
     <t>(p)</t>
   </si>
   <si>
-    <t xml:space="preserve">COGS  (IS) </t>
-  </si>
-  <si>
     <t>Return on Equity</t>
   </si>
   <si>
@@ -906,9 +900,6 @@
     <t>Net Income (IS).  Could use net operating profit (EBIT) less taxes.</t>
   </si>
   <si>
-    <t>Fixed assets + net working capital (Cass - Cliab)</t>
-  </si>
-  <si>
     <t>FCF   This is generally the definition of FCFF, but it is usually adjusted a lot.</t>
   </si>
   <si>
@@ -940,6 +931,34 @@
   </si>
   <si>
     <t>I used the net changes in assets and liabilities from the SoCF (Operating).  There are other reasonable options.</t>
+  </si>
+  <si>
+    <t>Fixed assets + net working capital (Cur ass - Cur liab)</t>
+  </si>
+  <si>
+    <t>Note:  Both of these definitions have variaous permutations.</t>
+  </si>
+  <si>
+    <t>Some use COGS in the denominator or other variations.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DRO:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>I assume that this # is the time it takes for a credit card sale to clear.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sales (IS); some use only credit sales.</t>
+  </si>
+  <si>
+    <t>COGS  (IS).  Welch uses sales, but most use COGS.  The difference is gross profits from sales.</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1188,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1382,8 +1401,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1393,15 +1410,9 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1423,13 +1434,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,74 +1443,63 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1514,6 +1507,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1872,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M256"/>
+  <dimension ref="B2:M258"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" zoomScale="139" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1892,29 +1906,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
+      <c r="C2" s="102"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="102"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="106"/>
+      <c r="B4" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="102"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="23"/>
     </row>
     <row r="6" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
@@ -1927,14 +1941,14 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="104" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="9">
         <v>0.03</v>
@@ -1945,26 +1959,26 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="25">
         <f>C10*C12</f>
         <v>15000</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="95"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="25">
         <v>500000</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
@@ -1978,7 +1992,7 @@
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
@@ -1994,18 +2008,18 @@
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="96">
         <f>C12-C12*C10</f>
         <v>485000</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="9">
         <v>7.0000000000000007E-2</v>
@@ -2015,54 +2029,54 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="9">
         <f>C16/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="99">
+        <v>111</v>
+      </c>
+      <c r="C18" s="97">
         <f>RATE(C14,C13,C15)</f>
         <v>6.0871089941770132E-3</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="99">
+        <v>113</v>
+      </c>
+      <c r="C19" s="97">
         <f>C18*12</f>
         <v>7.3045307930124162E-2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="100">
+        <v>114</v>
+      </c>
+      <c r="C20" s="98">
         <f>(1+C18)^12-1</f>
         <v>7.5541105223523974E-2</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -2070,7 +2084,7 @@
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
       <c r="D21" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -2078,7 +2092,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -2089,7 +2103,7 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="8"/>
@@ -2104,14 +2118,14 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="33"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="109">
+      <c r="B27" s="105">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C27" s="24">
@@ -2119,12 +2133,12 @@
         <v>-3326.5124758959159</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="110">
+      <c r="B28" s="106">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C28" s="24">
@@ -2132,13 +2146,13 @@
         <v>-3496.0725427638963</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="24">
         <f>C27-C28</f>
@@ -2149,9 +2163,9 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="101">
+        <v>148</v>
+      </c>
+      <c r="C30" s="140">
         <f>C11</f>
         <v>15000</v>
       </c>
@@ -2160,36 +2174,36 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="111">
+        <v>149</v>
+      </c>
+      <c r="C31" s="141">
         <f>C30/C29</f>
         <v>88.464225551874861</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="8" t="str">
         <f>INT(C31/12) &amp; " years and " &amp;ROUND(MOD(C31,12),0)&amp; " months"</f>
         <v>7 years and 4 months</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -2200,33 +2214,37 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3"/>
       <c r="D35" s="33" t="s">
-        <v>213</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="3"/>
       <c r="D36" s="33" t="s">
-        <v>214</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
       <c r="D37" s="33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="117" t="s">
-        <v>216</v>
+      <c r="D38" s="142" t="s">
+        <v>213</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="104" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="8"/>
@@ -2234,7 +2252,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="25">
         <v>500000</v>
@@ -2243,14 +2261,14 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="9">
         <f>C17</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" s="4"/>
     </row>
@@ -2293,26 +2311,26 @@
         <v>-3326.5124758959159</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="8">
         <f>360-(12*3)</f>
         <v>324</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="9">
         <f>C41</f>
@@ -2322,7 +2340,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C49" s="30">
         <f>PV(C48,C47,C46)</f>
@@ -2340,9 +2358,9 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
-      <c r="C51" s="101"/>
+      <c r="C51" s="140"/>
       <c r="D51" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="22"/>
@@ -2351,25 +2369,25 @@
       <c r="B52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="102">
+      <c r="C52" s="99">
         <f>CUMPRINC(C41,C14,C12,1,36,0)</f>
         <v>-16365.184438230755</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="30">
         <f>C40+C52</f>
         <v>483634.81556176924</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="4"/>
     </row>
@@ -2382,7 +2400,7 @@
       <c r="B55" s="7"/>
       <c r="C55" s="25"/>
       <c r="D55" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -2396,7 +2414,7 @@
       <c r="B57" s="7"/>
       <c r="C57" s="25"/>
       <c r="D57" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -2408,17 +2426,17 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
-      <c r="C59" s="101"/>
+      <c r="C59" s="140"/>
       <c r="D59" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
-      <c r="C60" s="101"/>
+      <c r="C60" s="140"/>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60" s="4"/>
     </row>
@@ -2426,7 +2444,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F61" s="4"/>
     </row>
@@ -2439,7 +2457,7 @@
         <v>-3326.5124758959159</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F62" s="4"/>
     </row>
@@ -2456,12 +2474,12 @@
       <c r="B64" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="101">
+      <c r="C64" s="140">
         <f>C53</f>
         <v>483634.81556176924</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F64" s="4"/>
     </row>
@@ -2474,47 +2492,47 @@
         <v>485000</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B66" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="103">
+        <v>131</v>
+      </c>
+      <c r="C66" s="143">
         <f>RATE(C63,C62,C65,-C64)</f>
         <v>6.7895022416849127E-3</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="99">
+        <v>113</v>
+      </c>
+      <c r="C67" s="97">
         <f>C66*12</f>
         <v>8.147402690021896E-2</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" s="104">
+        <v>114</v>
+      </c>
+      <c r="C68" s="100">
         <f>(1+C66)^12-1</f>
         <v>8.4586369920465421E-2</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
@@ -2526,8 +2544,8 @@
       <c r="M70" s="17"/>
     </row>
     <row r="71" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="107" t="s">
-        <v>134</v>
+      <c r="B71" s="103" t="s">
+        <v>133</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2570,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" s="36" t="s">
         <v>19</v>
@@ -2637,7 +2655,7 @@
         <v>32</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E78" s="36" t="s">
         <v>20</v>
@@ -2685,7 +2703,7 @@
         <v>39</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E81" s="36" t="s">
         <v>20</v>
@@ -2720,8 +2738,8 @@
     <row r="84" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B84" s="37"/>
       <c r="C84" s="40"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="113"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
       <c r="M84" s="17"/>
     </row>
     <row r="85" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2729,7 +2747,7 @@
       <c r="M85" s="17"/>
     </row>
     <row r="86" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="107" t="s">
+      <c r="B86" s="103" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="1"/>
@@ -2740,56 +2758,42 @@
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B87" s="7"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="118"/>
-      <c r="E87" s="118"/>
       <c r="F87" s="4"/>
       <c r="M87" s="17"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B88" s="7"/>
-      <c r="C88" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="118"/>
-      <c r="E88" s="118"/>
+      <c r="C88" s="110" t="s">
+        <v>85</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="M88" s="17"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B89" s="3"/>
-      <c r="C89" s="120" t="s">
-        <v>219</v>
-      </c>
-      <c r="D89" s="118"/>
-      <c r="E89" s="118"/>
+      <c r="C89" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B90" s="3"/>
-      <c r="C90" s="120" t="s">
+      <c r="C90" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D90" s="118"/>
-      <c r="E90" s="118"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B91" s="3"/>
-      <c r="C91" s="118"/>
-      <c r="D91" s="118"/>
-      <c r="E91" s="118"/>
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="121" t="s">
-        <v>164</v>
-      </c>
-      <c r="D92" s="118"/>
-      <c r="E92" s="118"/>
+      <c r="C92" s="111" t="s">
+        <v>163</v>
+      </c>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.15">
@@ -2797,10 +2801,10 @@
       <c r="C93" s="59">
         <v>32696</v>
       </c>
-      <c r="D93" s="122" t="s">
+      <c r="D93" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="123"/>
+      <c r="E93" s="10"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.15">
@@ -2808,51 +2812,45 @@
       <c r="C94" s="60">
         <v>31998</v>
       </c>
-      <c r="D94" s="124" t="s">
+      <c r="D94" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="118"/>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B95" s="3"/>
-      <c r="C95" s="125">
+      <c r="C95" s="114">
         <f>C93/C94</f>
         <v>1.0218138633664604</v>
       </c>
-      <c r="D95" s="126" t="s">
+      <c r="D95" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="126"/>
+      <c r="E95" s="17"/>
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B96" s="3"/>
-      <c r="C96" s="120" t="s">
-        <v>162</v>
-      </c>
-      <c r="D96" s="118"/>
-      <c r="E96" s="118"/>
+      <c r="C96" s="33" t="s">
+        <v>161</v>
+      </c>
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="3"/>
-      <c r="C97" s="120"/>
-      <c r="D97" s="118"/>
-      <c r="E97" s="118"/>
+      <c r="C97" s="33"/>
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B98" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="126" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="E98" s="118"/>
+      <c r="C98" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>167</v>
+      </c>
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
@@ -2861,114 +2859,108 @@
         <f>5488 + 1925 + 158</f>
         <v>7571</v>
       </c>
-      <c r="D99" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E99" s="118"/>
+      <c r="D99" s="34" t="s">
+        <v>164</v>
+      </c>
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="3"/>
-      <c r="C100" s="112">
+      <c r="C100" s="60">
         <v>158</v>
       </c>
-      <c r="D100" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="E100" s="118"/>
+      <c r="D100" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" s="3"/>
-      <c r="C101" s="128">
+      <c r="C101" s="115">
         <f>C99/C100</f>
         <v>47.917721518987342</v>
       </c>
-      <c r="D101" s="126" t="s">
-        <v>167</v>
-      </c>
-      <c r="E101" s="118"/>
+      <c r="D101" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="3"/>
-      <c r="C102" s="120"/>
-      <c r="D102" s="120"/>
-      <c r="E102" s="118"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="3"/>
-      <c r="C103" s="120"/>
-      <c r="D103" s="118"/>
-      <c r="E103" s="118"/>
+      <c r="C103" s="33"/>
       <c r="F103" s="4"/>
     </row>
     <row r="104" spans="2:6" ht="84" x14ac:dyDescent="0.15">
       <c r="B104" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="129" t="s">
+      <c r="C104" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="E104" s="121"/>
+      <c r="D104" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" s="111"/>
       <c r="F104" s="70"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="45"/>
-      <c r="C105" s="129"/>
-      <c r="D105" s="121"/>
-      <c r="E105" s="121"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
       <c r="F105" s="70"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="45"/>
-      <c r="C106" s="129"/>
-      <c r="D106" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="E106" s="130"/>
+      <c r="C106" s="116"/>
+      <c r="D106" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="E106" s="117"/>
       <c r="F106" s="71"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="45"/>
-      <c r="C107" s="129"/>
-      <c r="D107" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="E107" s="130"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" s="117"/>
       <c r="F107" s="71"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B108" s="45"/>
-      <c r="C108" s="129"/>
-      <c r="D108" s="131" t="s">
-        <v>85</v>
-      </c>
-      <c r="E108" s="130"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="117"/>
       <c r="F108" s="71"/>
     </row>
     <row r="109" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B109" s="3"/>
-      <c r="C109" s="129"/>
-      <c r="D109" s="129" t="s">
-        <v>175</v>
-      </c>
-      <c r="E109" s="129"/>
+      <c r="C109" s="116"/>
+      <c r="D109" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109" s="116"/>
       <c r="F109" s="63"/>
     </row>
     <row r="110" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B110" s="3"/>
-      <c r="C110" s="116">
+      <c r="C110" s="109">
         <v>20647</v>
       </c>
-      <c r="D110" s="129" t="s">
-        <v>176</v>
-      </c>
-      <c r="E110" s="129"/>
+      <c r="D110" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E110" s="116"/>
       <c r="F110" s="63"/>
     </row>
     <row r="111" spans="2:6" ht="14" x14ac:dyDescent="0.15">
@@ -2976,270 +2968,254 @@
       <c r="C111" s="68">
         <v>443</v>
       </c>
-      <c r="D111" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="E111" s="129"/>
+      <c r="D111" s="116" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" s="116"/>
       <c r="F111" s="63"/>
     </row>
     <row r="112" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B112" s="3"/>
-      <c r="C112" s="132">
+      <c r="C112" s="119">
         <f>C110/C111</f>
         <v>46.607223476297968</v>
       </c>
-      <c r="D112" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="E112" s="129"/>
+      <c r="D112" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" s="116"/>
       <c r="F112" s="63"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="3"/>
-      <c r="C113" s="129"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="129"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="116"/>
+      <c r="E113" s="116"/>
       <c r="F113" s="63"/>
     </row>
     <row r="114" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B114" s="3"/>
-      <c r="C114" s="115">
+      <c r="C114" s="108">
         <v>509.68</v>
       </c>
-      <c r="D114" s="121" t="s">
+      <c r="D114" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="E114" s="129"/>
+      <c r="E114" s="116"/>
       <c r="F114" s="63"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B115" s="3"/>
-      <c r="C115" s="129"/>
-      <c r="D115" s="129"/>
-      <c r="E115" s="129"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="116"/>
+      <c r="E115" s="116"/>
       <c r="F115" s="63"/>
     </row>
     <row r="116" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="114" t="s">
+      <c r="B116" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="D116" s="133"/>
-      <c r="E116" s="129"/>
+      <c r="C116" s="146" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="146"/>
+      <c r="E116" s="116"/>
       <c r="F116" s="63"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="3"/>
-      <c r="C117" s="133" t="s">
+      <c r="C117" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="D117" s="133"/>
-      <c r="E117" s="129"/>
+      <c r="D117" s="146"/>
+      <c r="E117" s="116"/>
       <c r="F117" s="63"/>
     </row>
     <row r="118" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="3"/>
-      <c r="C118" s="133"/>
-      <c r="D118" s="133"/>
-      <c r="E118" s="129"/>
+      <c r="C118" s="146"/>
+      <c r="D118" s="146"/>
+      <c r="E118" s="116"/>
       <c r="F118" s="63"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B119" s="3"/>
-      <c r="C119" s="133"/>
-      <c r="D119" s="133"/>
-      <c r="E119" s="118"/>
+      <c r="C119" s="146"/>
+      <c r="D119" s="146"/>
       <c r="F119" s="4"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="3"/>
-      <c r="C120" s="129"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="118"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116"/>
       <c r="F120" s="4"/>
     </row>
     <row r="121" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B121" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C121" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="D121" s="129"/>
-      <c r="E121" s="118"/>
+        <v>177</v>
+      </c>
+      <c r="C121" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" s="116"/>
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B122" s="3"/>
-      <c r="C122" s="134">
+      <c r="C122" s="120">
         <v>510</v>
       </c>
-      <c r="D122" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="E122" s="118"/>
+      <c r="D122" s="116" t="s">
+        <v>183</v>
+      </c>
       <c r="F122" s="4"/>
     </row>
     <row r="123" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B123" s="3"/>
-      <c r="C123" s="134">
+      <c r="C123" s="144">
         <v>13.17</v>
       </c>
-      <c r="D123" s="129" t="s">
-        <v>180</v>
-      </c>
-      <c r="E123" s="118"/>
+      <c r="D123" s="116" t="s">
+        <v>179</v>
+      </c>
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B124" s="3"/>
-      <c r="C124" s="135">
+      <c r="C124" s="121">
         <f>C122/C123</f>
         <v>38.724373576309794</v>
       </c>
-      <c r="D124" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="E124" s="118"/>
+      <c r="D124" s="111" t="s">
+        <v>178</v>
+      </c>
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B125" s="3"/>
-      <c r="C125" s="118"/>
-      <c r="D125" s="118"/>
-      <c r="E125" s="118"/>
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="3"/>
-      <c r="C126" s="136">
+      <c r="C126" s="122">
         <v>33.94</v>
       </c>
-      <c r="D126" s="120" t="s">
-        <v>181</v>
-      </c>
-      <c r="E126" s="118"/>
+      <c r="D126" s="33" t="s">
+        <v>180</v>
+      </c>
       <c r="F126" s="4"/>
     </row>
     <row r="127" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B127" s="3"/>
-      <c r="C127" s="136"/>
-      <c r="D127" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="E127" s="118"/>
+      <c r="C127" s="122"/>
+      <c r="D127" s="116" t="s">
+        <v>181</v>
+      </c>
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B128" s="3"/>
-      <c r="C128" s="129"/>
-      <c r="D128" s="118"/>
-      <c r="E128" s="118"/>
+      <c r="C128" s="116"/>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B129" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="121" t="s">
+      <c r="C129" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="118"/>
-      <c r="E129" s="118"/>
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B130" s="3"/>
-      <c r="C130" s="137">
+      <c r="C130" s="123">
         <v>1498</v>
       </c>
-      <c r="D130" s="129" t="s">
-        <v>183</v>
-      </c>
-      <c r="E130" s="129"/>
+      <c r="D130" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="E130" s="116"/>
       <c r="F130" s="63"/>
     </row>
     <row r="131" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B131" s="45"/>
-      <c r="C131" s="138"/>
-      <c r="D131" s="129" t="s">
-        <v>220</v>
-      </c>
-      <c r="E131" s="129"/>
+      <c r="C131" s="124"/>
+      <c r="D131" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="E131" s="116"/>
       <c r="F131" s="63"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B132" s="3"/>
-      <c r="C132" s="138"/>
-      <c r="D132" s="129"/>
-      <c r="E132" s="129"/>
+      <c r="C132" s="124"/>
+      <c r="D132" s="116"/>
+      <c r="E132" s="116"/>
       <c r="F132" s="63"/>
     </row>
     <row r="133" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B133" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="D133" s="118"/>
-      <c r="E133" s="129"/>
+      <c r="C133" s="124" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" s="116"/>
       <c r="F133" s="63"/>
     </row>
     <row r="134" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B134" s="45"/>
-      <c r="C134" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="D134" s="129" t="s">
+      <c r="C134" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="129"/>
+      <c r="D134" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E134" s="116"/>
       <c r="F134" s="63"/>
     </row>
     <row r="135" spans="2:6" ht="56" x14ac:dyDescent="0.15">
       <c r="B135" s="45"/>
-      <c r="C135" s="138"/>
-      <c r="D135" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E135" s="129"/>
+      <c r="C135" s="124"/>
+      <c r="D135" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="E135" s="116"/>
       <c r="F135" s="63"/>
     </row>
     <row r="136" spans="2:6" ht="70" x14ac:dyDescent="0.15">
       <c r="B136" s="45"/>
-      <c r="C136" s="138"/>
-      <c r="D136" s="129" t="s">
-        <v>189</v>
-      </c>
-      <c r="E136" s="129"/>
+      <c r="C136" s="124"/>
+      <c r="D136" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" s="116"/>
       <c r="F136" s="63"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B137" s="45"/>
-      <c r="C137" s="138"/>
-      <c r="D137" s="129"/>
-      <c r="E137" s="129"/>
+      <c r="C137" s="124"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="116"/>
       <c r="F137" s="63"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B138" s="45"/>
-      <c r="C138" s="138"/>
-      <c r="D138" s="129"/>
-      <c r="E138" s="129"/>
+      <c r="C138" s="124"/>
+      <c r="D138" s="116"/>
+      <c r="E138" s="116"/>
       <c r="F138" s="63"/>
     </row>
     <row r="139" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B139" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="129" t="s">
+      <c r="C139" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
+      <c r="D139" s="116"/>
+      <c r="E139" s="116"/>
       <c r="F139" s="63"/>
     </row>
     <row r="140" spans="2:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
@@ -3247,10 +3223,10 @@
       <c r="C140" s="66">
         <v>222730</v>
       </c>
-      <c r="D140" s="129" t="s">
-        <v>169</v>
-      </c>
-      <c r="E140" s="129"/>
+      <c r="D140" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" s="116"/>
       <c r="F140" s="63"/>
     </row>
     <row r="141" spans="2:6" ht="14" x14ac:dyDescent="0.15">
@@ -3258,10 +3234,10 @@
       <c r="C141" s="67">
         <v>199382</v>
       </c>
-      <c r="D141" s="129" t="s">
+      <c r="D141" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="E141" s="129"/>
+      <c r="E141" s="116"/>
       <c r="F141" s="63"/>
     </row>
     <row r="142" spans="2:6" ht="14" x14ac:dyDescent="0.15">
@@ -3270,42 +3246,40 @@
         <f>(C140-C141)/C140</f>
         <v>0.10482647151259372</v>
       </c>
-      <c r="D142" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="E142" s="129"/>
+      <c r="D142" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="E142" s="116"/>
       <c r="F142" s="63"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B143" s="45"/>
-      <c r="C143" s="138"/>
-      <c r="D143" s="129"/>
-      <c r="E143" s="129"/>
+      <c r="C143" s="124"/>
+      <c r="D143" s="116"/>
+      <c r="E143" s="116"/>
       <c r="F143" s="63"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B144" s="45"/>
-      <c r="C144" s="138"/>
-      <c r="D144" s="129"/>
-      <c r="E144" s="129"/>
+      <c r="C144" s="124"/>
+      <c r="D144" s="116"/>
+      <c r="E144" s="116"/>
       <c r="F144" s="63"/>
     </row>
     <row r="145" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B145" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C145" s="140" t="s">
+      <c r="C145" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="123"/>
-      <c r="E145" s="129"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="116"/>
       <c r="F145" s="63"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B146" s="3"/>
-      <c r="C146" s="118"/>
-      <c r="D146" s="118"/>
-      <c r="E146" s="129"/>
+      <c r="E146" s="116"/>
       <c r="F146" s="63"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
@@ -3315,9 +3289,9 @@
         <v>7998</v>
       </c>
       <c r="D147" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="E147" s="129"/>
+        <v>190</v>
+      </c>
+      <c r="E147" s="116"/>
       <c r="F147" s="63"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.15">
@@ -3325,10 +3299,10 @@
       <c r="C148" s="58">
         <v>1900</v>
       </c>
-      <c r="D148" s="120" t="s">
+      <c r="D148" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E148" s="129"/>
+      <c r="E148" s="116"/>
       <c r="F148" s="63"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
@@ -3337,26 +3311,25 @@
         <f>C148+C147</f>
         <v>9898</v>
       </c>
-      <c r="D149" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="E149" s="129"/>
+      <c r="D149" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E149" s="116"/>
       <c r="F149" s="63"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B150" s="3"/>
-      <c r="C150" s="141"/>
-      <c r="D150" s="127"/>
-      <c r="E150" s="129"/>
+      <c r="C150" s="127"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="116"/>
       <c r="F150" s="63"/>
     </row>
     <row r="151" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B151" s="3"/>
-      <c r="C151" s="142" t="s">
+      <c r="C151" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D151" s="118"/>
-      <c r="E151" s="129"/>
+      <c r="E151" s="116"/>
       <c r="F151" s="63"/>
     </row>
     <row r="152" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3365,10 +3338,9 @@
         <f>C149</f>
         <v>9898</v>
       </c>
-      <c r="D152" s="120" t="s">
+      <c r="D152" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E152" s="118"/>
       <c r="F152" s="4"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
@@ -3376,10 +3348,9 @@
       <c r="C153" s="58">
         <v>226954</v>
       </c>
-      <c r="D153" s="120" t="s">
-        <v>190</v>
-      </c>
-      <c r="E153" s="118"/>
+      <c r="D153" s="33" t="s">
+        <v>189</v>
+      </c>
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
@@ -3388,17 +3359,13 @@
         <f>C152/C153</f>
         <v>4.3612361976435754E-2</v>
       </c>
-      <c r="D154" s="126" t="s">
+      <c r="D154" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E154" s="118"/>
       <c r="F154" s="4"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B155" s="3"/>
-      <c r="C155" s="118"/>
-      <c r="D155" s="118"/>
-      <c r="E155" s="118"/>
       <c r="F155" s="4"/>
     </row>
     <row r="156" spans="2:6" ht="14" x14ac:dyDescent="0.15">
@@ -3408,8 +3375,6 @@
       <c r="C156" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="D156" s="118"/>
-      <c r="E156" s="118"/>
       <c r="F156" s="4"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.15">
@@ -3417,10 +3382,9 @@
       <c r="C157" s="26">
         <v>7793</v>
       </c>
-      <c r="D157" s="118" t="s">
+      <c r="D157" t="s">
         <v>56</v>
       </c>
-      <c r="E157" s="118"/>
       <c r="F157" s="4"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
@@ -3428,10 +3392,9 @@
       <c r="C158" s="58">
         <v>226954</v>
       </c>
-      <c r="D158" s="120" t="s">
-        <v>193</v>
-      </c>
-      <c r="E158" s="118"/>
+      <c r="D158" s="33" t="s">
+        <v>192</v>
+      </c>
       <c r="F158" s="4"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
@@ -3440,24 +3403,17 @@
         <f>C157/C158</f>
         <v>3.4337354706240032E-2</v>
       </c>
-      <c r="D159" s="126" t="s">
+      <c r="D159" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E159" s="118"/>
       <c r="F159" s="4"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B160" s="3"/>
-      <c r="C160" s="118"/>
-      <c r="D160" s="118"/>
-      <c r="E160" s="118"/>
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="3"/>
-      <c r="C161" s="118"/>
-      <c r="D161" s="118"/>
-      <c r="E161" s="118"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="2:6" ht="14" x14ac:dyDescent="0.15">
@@ -3467,8 +3423,6 @@
       <c r="C162" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D162" s="118"/>
-      <c r="E162" s="118"/>
       <c r="F162" s="4"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
@@ -3476,10 +3430,9 @@
       <c r="C163" s="26">
         <v>5844</v>
       </c>
-      <c r="D163" s="118" t="s">
+      <c r="D163" t="s">
         <v>59</v>
       </c>
-      <c r="E163" s="118"/>
       <c r="F163" s="4"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
@@ -3487,10 +3440,9 @@
       <c r="C164" s="58">
         <v>226954</v>
       </c>
-      <c r="D164" s="118" t="s">
+      <c r="D164" t="s">
         <v>60</v>
       </c>
-      <c r="E164" s="118"/>
       <c r="F164" s="4"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
@@ -3499,35 +3451,26 @@
         <f>C163/C164</f>
         <v>2.5749711395260715E-2</v>
       </c>
-      <c r="D165" s="126" t="s">
+      <c r="D165" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E165" s="118"/>
       <c r="F165" s="4"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B166" s="3"/>
-      <c r="C166" s="118"/>
-      <c r="D166" s="118"/>
-      <c r="E166" s="118"/>
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B167" s="3"/>
-      <c r="C167" s="118"/>
-      <c r="D167" s="118"/>
-      <c r="E167" s="118"/>
       <c r="F167" s="4"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B168" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="143" t="s">
+      <c r="C168" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D168" s="118"/>
-      <c r="E168" s="118"/>
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.15">
@@ -3535,73 +3478,64 @@
       <c r="C169" s="62">
         <v>7392</v>
       </c>
-      <c r="D169" s="144" t="s">
+      <c r="D169" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E169" s="118"/>
       <c r="F169" s="4"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B170" s="3"/>
       <c r="C170" s="62"/>
-      <c r="D170" s="144"/>
-      <c r="E170" s="118"/>
+      <c r="D170" s="21"/>
       <c r="F170" s="4"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B171" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C171" s="145" t="s">
-        <v>49</v>
-      </c>
-      <c r="D171" s="120" t="s">
-        <v>195</v>
-      </c>
-      <c r="E171" s="118"/>
       <c r="F171" s="4"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B172" s="3"/>
-      <c r="C172" s="145"/>
-      <c r="D172" s="120" t="s">
+      <c r="C172" s="27"/>
+      <c r="D172" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E172" s="118"/>
       <c r="F172" s="4"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B173" s="3"/>
-      <c r="C173" s="146"/>
-      <c r="D173" s="120" t="s">
-        <v>197</v>
-      </c>
-      <c r="E173" s="118"/>
+      <c r="C173" s="130"/>
+      <c r="D173" s="33" t="s">
+        <v>196</v>
+      </c>
       <c r="F173" s="4"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B174" s="3"/>
       <c r="C174" s="57"/>
-      <c r="D174" s="127" t="s">
+      <c r="D174" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E174" s="118"/>
       <c r="F174" s="4"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B175" s="3"/>
-      <c r="C175" s="118"/>
-      <c r="D175" s="120" t="s">
+      <c r="D175" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E175" s="118"/>
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B176" s="3"/>
       <c r="C176" s="62"/>
-      <c r="D176" s="144"/>
-      <c r="E176" s="118"/>
+      <c r="D176" s="21"/>
       <c r="F176" s="4"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.15">
@@ -3609,10 +3543,9 @@
       <c r="C177" s="26">
         <v>7793</v>
       </c>
-      <c r="D177" s="120" t="s">
+      <c r="D177" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E177" s="118"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.15">
@@ -3620,10 +3553,9 @@
       <c r="C178" s="26">
         <v>1900</v>
       </c>
-      <c r="D178" s="127" t="s">
+      <c r="D178" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E178" s="118"/>
       <c r="F178" s="4"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.15">
@@ -3631,10 +3563,9 @@
       <c r="C179" s="26">
         <v>-3891</v>
       </c>
-      <c r="D179" s="120" t="s">
+      <c r="D179" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E179" s="118"/>
       <c r="F179" s="4"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.15">
@@ -3643,10 +3574,9 @@
         <f>-(0.246)*C177</f>
         <v>-1917.078</v>
       </c>
-      <c r="D180" s="120" t="s">
-        <v>196</v>
-      </c>
-      <c r="E180" s="118"/>
+      <c r="D180" s="33" t="s">
+        <v>195</v>
+      </c>
       <c r="F180" s="4"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.15">
@@ -3654,10 +3584,9 @@
       <c r="C181" s="58">
         <v>-1563</v>
       </c>
-      <c r="D181" s="120" t="s">
-        <v>222</v>
-      </c>
-      <c r="E181" s="118"/>
+      <c r="D181" s="33" t="s">
+        <v>219</v>
+      </c>
       <c r="F181" s="4"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.15">
@@ -3666,38 +3595,34 @@
         <f>SUM(C177:C181)</f>
         <v>2321.922</v>
       </c>
-      <c r="D182" s="144" t="s">
-        <v>212</v>
-      </c>
-      <c r="E182" s="118"/>
+      <c r="D182" s="21" t="s">
+        <v>209</v>
+      </c>
       <c r="F182" s="4"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B183" s="3"/>
       <c r="C183" s="62"/>
-      <c r="D183" s="144"/>
-      <c r="E183" s="118"/>
+      <c r="D183" s="21"/>
       <c r="F183" s="4"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B184" s="3"/>
       <c r="C184" s="62"/>
-      <c r="D184" s="144"/>
-      <c r="E184" s="118"/>
+      <c r="D184" s="21"/>
       <c r="F184" s="4"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B185" s="3"/>
       <c r="C185" s="62"/>
-      <c r="D185" s="144"/>
-      <c r="E185" s="118"/>
+      <c r="D185" s="21"/>
       <c r="F185" s="4"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B186" s="3"/>
       <c r="C186" s="57"/>
-      <c r="D186" s="120" t="s">
-        <v>198</v>
+      <c r="D186" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="E186" s="28"/>
       <c r="F186" s="64"/>
@@ -3707,10 +3632,9 @@
       <c r="C187" s="26">
         <v>7392</v>
       </c>
-      <c r="D187" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="E187" s="118"/>
+      <c r="D187" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="F187" s="4"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.15">
@@ -3718,10 +3642,9 @@
       <c r="C188" s="58">
         <v>-3891</v>
       </c>
-      <c r="D188" s="120" t="s">
+      <c r="D188" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E188" s="118"/>
       <c r="F188" s="4"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.15">
@@ -3730,296 +3653,269 @@
         <f>C188+C187</f>
         <v>3501</v>
       </c>
-      <c r="D189" s="126" t="s">
+      <c r="D189" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E189" s="118"/>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="3"/>
       <c r="C190" s="57"/>
-      <c r="D190" s="120" t="s">
+      <c r="D190" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E190" s="118"/>
       <c r="F190" s="4"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B191" s="3"/>
       <c r="C191" s="57"/>
-      <c r="D191" s="120" t="s">
-        <v>83</v>
-      </c>
-      <c r="E191" s="118"/>
+      <c r="D191" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="F191" s="4"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="3"/>
       <c r="C192" s="57"/>
-      <c r="D192" s="118"/>
-      <c r="E192" s="118"/>
       <c r="F192" s="4"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B193" s="3"/>
       <c r="C193" s="57"/>
-      <c r="D193" s="120"/>
-      <c r="E193" s="118"/>
+      <c r="D193" s="33"/>
       <c r="F193" s="4"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B194" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C194" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="D194" s="120"/>
-      <c r="E194" s="118"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="33" t="s">
+        <v>221</v>
+      </c>
       <c r="F194" s="4"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B195" s="3"/>
-      <c r="C195" s="26">
+      <c r="C195" s="57"/>
+      <c r="D195" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D196" s="33"/>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B197" s="3"/>
+      <c r="C197" s="26">
         <v>2241</v>
       </c>
-      <c r="D195" s="122" t="s">
+      <c r="D197" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="E195" s="118"/>
-      <c r="F195" s="4"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" s="11"/>
-      <c r="C196" s="58">
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="11"/>
+      <c r="C198" s="58">
         <v>226954</v>
       </c>
-      <c r="D196" s="147" t="s">
-        <v>78</v>
-      </c>
-      <c r="E196" s="118"/>
-      <c r="F196" s="4"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" s="7"/>
-      <c r="C197" s="128">
-        <f>(365*C195)/C196</f>
-        <v>3.6041003903874795</v>
-      </c>
-      <c r="D197" s="148" t="s">
-        <v>76</v>
-      </c>
-      <c r="E197" s="118"/>
-      <c r="F197" s="4"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" s="7"/>
-      <c r="C198" s="118"/>
-      <c r="D198" s="118"/>
-      <c r="E198" s="118"/>
+      <c r="D198" s="131" t="s">
+        <v>224</v>
+      </c>
       <c r="F198" s="4"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B199" s="7"/>
-      <c r="C199" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="D199" s="118"/>
-      <c r="E199" s="118"/>
+      <c r="C199" s="115">
+        <f>(365*C197)/C198</f>
+        <v>3.6041003903874795</v>
+      </c>
+      <c r="D199" s="132" t="s">
+        <v>223</v>
+      </c>
       <c r="F199" s="4"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B200" s="7"/>
-      <c r="C200" s="26">
-        <v>17848</v>
-      </c>
-      <c r="D200" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="E200" s="118"/>
       <c r="F200" s="4"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B201" s="7"/>
-      <c r="C201" s="58">
-        <v>199382</v>
-      </c>
-      <c r="D201" s="118" t="s">
-        <v>202</v>
-      </c>
-      <c r="E201" s="118"/>
+      <c r="C201" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="F201" s="4"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B202" s="7"/>
-      <c r="C202" s="128">
-        <f>(365*C200)/C201</f>
-        <v>32.673561304430692</v>
-      </c>
-      <c r="D202" s="148" t="s">
-        <v>76</v>
-      </c>
-      <c r="E202" s="118"/>
+      <c r="C202" s="26">
+        <v>17848</v>
+      </c>
+      <c r="D202" s="112" t="s">
+        <v>79</v>
+      </c>
       <c r="F202" s="4"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B203" s="7"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="118"/>
-      <c r="E203" s="118"/>
+      <c r="C203" s="58">
+        <v>199382</v>
+      </c>
+      <c r="D203" s="33" t="s">
+        <v>225</v>
+      </c>
       <c r="F203" s="4"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B204" s="7"/>
-      <c r="C204" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="D204" s="118"/>
-      <c r="E204" s="118"/>
+      <c r="C204" s="115">
+        <f>(365*C202)/C203</f>
+        <v>32.673561304430692</v>
+      </c>
+      <c r="D204" s="132" t="s">
+        <v>76</v>
+      </c>
       <c r="F204" s="4"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B205" s="3"/>
-      <c r="C205" s="118"/>
-      <c r="D205" s="118"/>
-      <c r="E205" s="118"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="26"/>
       <c r="F205" s="4"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B206" s="3"/>
-      <c r="C206" s="118"/>
-      <c r="D206" s="118"/>
-      <c r="E206" s="118"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="33" t="s">
+        <v>205</v>
+      </c>
       <c r="F206" s="4"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B207" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C207" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D207" s="118"/>
-      <c r="E207" s="118"/>
+      <c r="B207" s="3"/>
       <c r="F207" s="4"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B208" s="3"/>
-      <c r="C208" s="26">
-        <v>5844</v>
-      </c>
-      <c r="D208" s="120" t="s">
-        <v>206</v>
-      </c>
-      <c r="E208" s="118"/>
       <c r="F208" s="4"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B209" s="3"/>
-      <c r="C209" s="58">
-        <v>20647</v>
-      </c>
-      <c r="D209" s="120" t="s">
-        <v>205</v>
-      </c>
-      <c r="E209" s="120"/>
-      <c r="F209" s="149"/>
-      <c r="G209" s="33"/>
+      <c r="B209" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F209" s="4"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B210" s="3"/>
-      <c r="C210" s="28">
-        <f>C208/C209</f>
-        <v>0.28304354143459098</v>
-      </c>
-      <c r="D210" s="126" t="s">
+      <c r="C210" s="26">
+        <v>5844</v>
+      </c>
+      <c r="D210" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="E210" s="120"/>
-      <c r="F210" s="149"/>
-      <c r="G210" s="33"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B211" s="3"/>
-      <c r="C211" s="118"/>
-      <c r="D211" s="120"/>
-      <c r="E211" s="120"/>
-      <c r="F211" s="149"/>
+      <c r="C211" s="58">
+        <v>20647</v>
+      </c>
+      <c r="D211" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E211" s="33"/>
+      <c r="F211" s="133"/>
       <c r="G211" s="33"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B212" s="45"/>
-      <c r="C212" s="143"/>
-      <c r="D212" s="120"/>
-      <c r="E212" s="120"/>
-      <c r="F212" s="149"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="28">
+        <f>C210/C211</f>
+        <v>0.28304354143459098</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E212" s="33"/>
+      <c r="F212" s="133"/>
       <c r="G212" s="33"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B213" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C213" s="62" t="s">
+      <c r="B213" s="3"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="133"/>
+      <c r="G213" s="33"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B214" s="45"/>
+      <c r="C214" s="129"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="133"/>
+      <c r="G214" s="33"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B215" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C215" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="133"/>
+      <c r="G215" s="33"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B216" s="3"/>
+      <c r="C216" s="26">
+        <v>5844</v>
+      </c>
+      <c r="D216" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D213" s="120"/>
-      <c r="E213" s="120"/>
-      <c r="F213" s="149"/>
-      <c r="G213" s="33"/>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B214" s="3"/>
-      <c r="C214" s="26">
-        <v>5844</v>
-      </c>
-      <c r="D214" s="120" t="s">
-        <v>210</v>
-      </c>
-      <c r="E214" s="120"/>
-      <c r="F214" s="149"/>
-      <c r="G214" s="33"/>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B215" s="3"/>
-      <c r="C215" s="58">
-        <v>20647</v>
-      </c>
-      <c r="D215" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="E215" s="120"/>
-      <c r="F215" s="149"/>
-      <c r="G215" s="33"/>
-    </row>
-    <row r="216" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="48"/>
-      <c r="C216" s="150">
-        <f>C214/C215</f>
-        <v>0.28304354143459098</v>
-      </c>
-      <c r="D216" s="151" t="s">
-        <v>209</v>
-      </c>
-      <c r="E216" s="152"/>
-      <c r="F216" s="153"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="133"/>
       <c r="G216" s="33"/>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B217" s="11"/>
-      <c r="C217" s="27"/>
-      <c r="D217" s="33"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="58">
+        <f>24646+2774+4050+698</f>
+        <v>32168</v>
+      </c>
+      <c r="D217" s="33" t="s">
+        <v>220</v>
+      </c>
       <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
+      <c r="F217" s="133"/>
       <c r="G217" s="33"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
+    <row r="218" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="48"/>
+      <c r="C218" s="134">
+        <f>C216/C217</f>
+        <v>0.18167122606316838</v>
+      </c>
+      <c r="D218" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="E218" s="136"/>
+      <c r="F218" s="137"/>
       <c r="G218" s="33"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B219" s="11"/>
+      <c r="C219" s="27"/>
       <c r="D219" s="33"/>
       <c r="E219" s="33"/>
       <c r="F219" s="33"/>
@@ -4031,21 +3927,33 @@
       <c r="F220" s="33"/>
       <c r="G220" s="33"/>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G236" s="28"/>
-      <c r="H236" s="28"/>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B254" s="8"/>
-      <c r="C254" s="15"/>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B255" s="8"/>
-      <c r="C255" s="13"/>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+    </row>
+    <row r="238" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G238" s="28"/>
+      <c r="H238" s="28"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B256" s="14"/>
-      <c r="C256" s="20"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="15"/>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B257" s="8"/>
+      <c r="C257" s="13"/>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B258" s="14"/>
+      <c r="C258" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4066,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:G100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4089,7 +3997,7 @@
     <row r="3" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4097,12 +4005,12 @@
     </row>
     <row r="9" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C9" s="72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="73">
         <v>500000</v>
@@ -4110,14 +4018,14 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="31">
         <f>0.07/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
@@ -4139,16 +4047,16 @@
     </row>
     <row r="15" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="C15" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="E15" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="F15" s="51" t="s">
         <v>92</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -4916,33 +4824,33 @@
     <row r="54" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="17"/>
       <c r="C55" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="77">
         <f>500000</f>
         <v>500000</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F55" s="78">
         <f>0.07/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="17"/>
       <c r="C56" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="77">
         <f>0.03*500000</f>
@@ -4958,14 +4866,14 @@
     <row r="57" spans="2:7" ht="42" x14ac:dyDescent="0.15">
       <c r="B57" s="17"/>
       <c r="C57" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="77">
         <f>D55-D56</f>
         <v>485000</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" s="8">
         <v>36</v>
@@ -4990,10 +4898,10 @@
         <v>485000</v>
       </c>
       <c r="D60" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -5013,7 +4921,7 @@
         <v>483634.81556176924</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -5331,7 +5239,7 @@
         <v>-486961.32803766517</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
@@ -5339,31 +5247,31 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="86">
         <f>IRR(C60:C96,0.05)</f>
         <v>6.7895022416850637E-3</v>
       </c>
       <c r="D98" s="87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="28" x14ac:dyDescent="0.15">
       <c r="B99" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" s="88">
         <f>C98*12</f>
         <v>8.1474026900220764E-2</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D100" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/homeworks/CF_HW_5_2022_Ans.xlsx
+++ b/homeworks/CF_HW_5_2022_Ans.xlsx
@@ -5,19 +5,19 @@
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Problems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBA19D9-D472-7846-89D8-4D23E26A4C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE7EDB9-EC18-AE42-AE0C-860B8FBCCE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="460" windowWidth="22400" windowHeight="26620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24820" yWindow="8920" windowWidth="19860" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Answers!$B$2:$F$148</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Answers!$B$2:$F$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="229">
   <si>
     <t>Corporate Finance</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Question 3</t>
-  </si>
-  <si>
-    <t>Pay dividends</t>
   </si>
   <si>
     <t>Increase AR</t>
@@ -959,6 +956,18 @@
   </si>
   <si>
     <t>COGS  (IS).  Welch uses sales, but most use COGS.  The difference is gross profits from sales.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease (cash out); but SoCF starts w/ P/L which already deducts int </t>
+  </si>
+  <si>
+    <t>Payment of dividends</t>
+  </si>
+  <si>
+    <t>Payment of interest</t>
   </si>
 </sst>
 </file>
@@ -1886,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M258"/>
+  <dimension ref="B2:M259"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" zoomScale="139" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="109" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1919,7 +1928,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="102"/>
     </row>
@@ -1948,7 +1957,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="9">
         <v>0.03</v>
@@ -1959,21 +1968,21 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="25">
         <f>C10*C12</f>
         <v>15000</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="95"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="25">
         <v>500000</v>
@@ -2013,13 +2022,13 @@
         <v>485000</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="9">
         <v>7.0000000000000007E-2</v>
@@ -2029,54 +2038,54 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="9">
         <f>C16/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="97">
         <f>RATE(C14,C13,C15)</f>
         <v>6.0871089941770132E-3</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="97">
         <f>C18*12</f>
         <v>7.3045307930124162E-2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="98">
         <f>(1+C18)^12-1</f>
         <v>7.5541105223523974E-2</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -2084,7 +2093,7 @@
       <c r="B21" s="11"/>
       <c r="C21" s="8"/>
       <c r="D21" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -2092,7 +2101,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="8"/>
       <c r="D22" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -2118,7 +2127,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="33"/>
@@ -2133,7 +2142,7 @@
         <v>-3326.5124758959159</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -2146,13 +2155,13 @@
         <v>-3496.0725427638963</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="24">
         <f>C27-C28</f>
@@ -2163,7 +2172,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="140">
         <f>C11</f>
@@ -2174,36 +2183,36 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="141">
         <f>C30/C29</f>
         <v>88.464225551874861</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="8" t="str">
         <f>INT(C31/12) &amp; " years and " &amp;ROUND(MOD(C31,12),0)&amp; " months"</f>
         <v>7 years and 4 months</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -2216,14 +2225,14 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="D35" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="D36" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="4"/>
     </row>
@@ -2231,7 +2240,7 @@
       <c r="B37" s="11"/>
       <c r="C37" s="8"/>
       <c r="D37" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" s="4"/>
     </row>
@@ -2239,7 +2248,7 @@
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
       <c r="D38" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" s="4"/>
     </row>
@@ -2252,7 +2261,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="25">
         <v>500000</v>
@@ -2261,14 +2270,14 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="9">
         <f>C17</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="4"/>
     </row>
@@ -2311,26 +2320,26 @@
         <v>-3326.5124758959159</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="8">
         <f>360-(12*3)</f>
         <v>324</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C48" s="9">
         <f>C41</f>
@@ -2340,7 +2349,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="30">
         <f>PV(C48,C47,C46)</f>
@@ -2360,7 +2369,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="140"/>
       <c r="D51" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="22"/>
@@ -2374,20 +2383,20 @@
         <v>-16365.184438230755</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="30">
         <f>C40+C52</f>
         <v>483634.81556176924</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53" s="4"/>
     </row>
@@ -2400,7 +2409,7 @@
       <c r="B55" s="7"/>
       <c r="C55" s="25"/>
       <c r="D55" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -2414,7 +2423,7 @@
       <c r="B57" s="7"/>
       <c r="C57" s="25"/>
       <c r="D57" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -2428,7 +2437,7 @@
       <c r="B59" s="7"/>
       <c r="C59" s="140"/>
       <c r="D59" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -2436,7 +2445,7 @@
       <c r="B60" s="7"/>
       <c r="C60" s="140"/>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="4"/>
     </row>
@@ -2444,7 +2453,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61" s="4"/>
     </row>
@@ -2457,7 +2466,7 @@
         <v>-3326.5124758959159</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="4"/>
     </row>
@@ -2479,7 +2488,7 @@
         <v>483634.81556176924</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="4"/>
     </row>
@@ -2492,47 +2501,47 @@
         <v>485000</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B66" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="143">
         <f>RATE(C63,C62,C65,-C64)</f>
         <v>6.7895022416849127E-3</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="22"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C67" s="97">
         <f>C66*12</f>
         <v>8.147402690021896E-2</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="100">
         <f>(1+C66)^12-1</f>
         <v>8.4586369920465421E-2</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
@@ -2545,7 +2554,7 @@
     </row>
     <row r="71" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B71" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2588,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74" s="36" t="s">
         <v>19</v>
@@ -2620,10 +2629,10 @@
         <v>24</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="36" t="s">
         <v>20</v>
@@ -2631,12 +2640,12 @@
       <c r="F76" s="4"/>
       <c r="M76" s="17"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>31</v>
+        <v>176</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>227</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>18</v>
@@ -2644,18 +2653,17 @@
       <c r="E77" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="4"/>
       <c r="M77" s="17"/>
     </row>
-    <row r="78" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B78" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>32</v>
+    <row r="78" spans="2:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="B78" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>228</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="E78" s="36" t="s">
         <v>20</v>
@@ -2663,31 +2671,31 @@
       <c r="F78" s="4"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B79" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F79" s="4"/>
       <c r="M79" s="17"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B80" s="45" t="s">
-        <v>27</v>
+      <c r="B80" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" s="36" t="s">
         <v>22</v>
@@ -2697,29 +2705,29 @@
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B81" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F81" s="4"/>
       <c r="M81" s="17"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B82" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="38" t="s">
         <v>38</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>159</v>
       </c>
       <c r="E82" s="36" t="s">
         <v>20</v>
@@ -2727,209 +2735,216 @@
       <c r="F82" s="4"/>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="48"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="6"/>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B83" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="4"/>
       <c r="M83" s="17"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B84" s="37"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
+    <row r="84" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="6"/>
       <c r="M84" s="17"/>
     </row>
-    <row r="85" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="8"/>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B85" s="37"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
       <c r="M85" s="17"/>
     </row>
     <row r="86" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="103" t="s">
+      <c r="B86" s="8"/>
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="2:13" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
-      <c r="M86" s="17"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B87" s="7"/>
-      <c r="F87" s="4"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="2"/>
       <c r="M87" s="17"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B88" s="7"/>
-      <c r="C88" s="110" t="s">
-        <v>85</v>
-      </c>
       <c r="F88" s="4"/>
       <c r="M88" s="17"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B89" s="3"/>
-      <c r="C89" s="33" t="s">
-        <v>216</v>
+      <c r="B89" s="7"/>
+      <c r="C89" s="110" t="s">
+        <v>84</v>
       </c>
       <c r="F89" s="4"/>
+      <c r="M89" s="17"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B90" s="3"/>
       <c r="C90" s="33" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B91" s="3"/>
+      <c r="C91" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="45" t="s">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B92" s="3"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="2:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B93" s="3"/>
-      <c r="C93" s="59">
-        <v>32696</v>
-      </c>
-      <c r="D93" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="10"/>
+      <c r="C93" s="111" t="s">
+        <v>162</v>
+      </c>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B94" s="3"/>
-      <c r="C94" s="60">
-        <v>31998</v>
-      </c>
-      <c r="D94" s="113" t="s">
-        <v>42</v>
-      </c>
+      <c r="C94" s="59">
+        <v>32696</v>
+      </c>
+      <c r="D94" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="10"/>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B95" s="3"/>
-      <c r="C95" s="114">
-        <f>C93/C94</f>
-        <v>1.0218138633664604</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" s="17"/>
+      <c r="C95" s="60">
+        <v>31998</v>
+      </c>
+      <c r="D95" s="113" t="s">
+        <v>41</v>
+      </c>
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B96" s="3"/>
-      <c r="C96" s="33" t="s">
-        <v>161</v>
-      </c>
+      <c r="C96" s="114">
+        <f>C94/C95</f>
+        <v>1.0218138633664604</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="17"/>
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B97" s="3"/>
-      <c r="C97" s="33"/>
+      <c r="C97" s="33" t="s">
+        <v>160</v>
+      </c>
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="3"/>
+      <c r="C98" s="33"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="3"/>
-      <c r="C99" s="59">
+      <c r="C99" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="3"/>
+      <c r="C100" s="59">
         <f>5488 + 1925 + 158</f>
         <v>7571</v>
       </c>
-      <c r="D99" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="3"/>
-      <c r="C100" s="60">
-        <v>158</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>165</v>
+      <c r="D100" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B101" s="3"/>
-      <c r="C101" s="115">
-        <f>C99/C100</f>
-        <v>47.917721518987342</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>166</v>
+      <c r="C101" s="60">
+        <v>158</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B102" s="3"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="115">
+        <f>C100/C101</f>
+        <v>47.917721518987342</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>165</v>
+      </c>
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="3"/>
       <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="2:6" ht="84" x14ac:dyDescent="0.15">
-      <c r="B104" s="45" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="3"/>
+      <c r="C104" s="33"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="2:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="B105" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" s="111"/>
-      <c r="F104" s="70"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="45"/>
-      <c r="C105" s="116"/>
-      <c r="D105" s="111"/>
+      <c r="C105" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" s="117" t="s">
+        <v>170</v>
+      </c>
       <c r="E105" s="111"/>
       <c r="F105" s="70"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="45"/>
       <c r="C106" s="116"/>
-      <c r="D106" s="118" t="s">
-        <v>172</v>
-      </c>
-      <c r="E106" s="117"/>
-      <c r="F106" s="71"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
+      <c r="F106" s="70"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B107" s="45"/>
       <c r="C107" s="116"/>
       <c r="D107" s="118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E107" s="117"/>
       <c r="F107" s="71"/>
@@ -2938,265 +2953,267 @@
       <c r="B108" s="45"/>
       <c r="C108" s="116"/>
       <c r="D108" s="118" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="E108" s="117"/>
       <c r="F108" s="71"/>
     </row>
-    <row r="109" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B109" s="3"/>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="45"/>
       <c r="C109" s="116"/>
-      <c r="D109" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="E109" s="116"/>
-      <c r="F109" s="63"/>
+      <c r="D109" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" s="117"/>
+      <c r="F109" s="71"/>
     </row>
     <row r="110" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B110" s="3"/>
-      <c r="C110" s="109">
-        <v>20647</v>
-      </c>
+      <c r="C110" s="116"/>
       <c r="D110" s="116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E110" s="116"/>
       <c r="F110" s="63"/>
     </row>
-    <row r="111" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="B111" s="3"/>
-      <c r="C111" s="68">
-        <v>443</v>
+      <c r="C111" s="109">
+        <v>20647</v>
       </c>
       <c r="D111" s="116" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="E111" s="116"/>
       <c r="F111" s="63"/>
     </row>
     <row r="112" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B112" s="3"/>
-      <c r="C112" s="119">
-        <f>C110/C111</f>
-        <v>46.607223476297968</v>
-      </c>
-      <c r="D112" s="111" t="s">
-        <v>80</v>
+      <c r="C112" s="68">
+        <v>443</v>
+      </c>
+      <c r="D112" s="116" t="s">
+        <v>82</v>
       </c>
       <c r="E112" s="116"/>
       <c r="F112" s="63"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B113" s="3"/>
-      <c r="C113" s="116"/>
-      <c r="D113" s="116"/>
+      <c r="C113" s="119">
+        <f>C111/C112</f>
+        <v>46.607223476297968</v>
+      </c>
+      <c r="D113" s="111" t="s">
+        <v>79</v>
+      </c>
       <c r="E113" s="116"/>
       <c r="F113" s="63"/>
     </row>
-    <row r="114" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B114" s="3"/>
-      <c r="C114" s="108">
-        <v>509.68</v>
-      </c>
-      <c r="D114" s="111" t="s">
-        <v>51</v>
-      </c>
+      <c r="C114" s="116"/>
+      <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="63"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B115" s="3"/>
-      <c r="C115" s="116"/>
-      <c r="D115" s="116"/>
+      <c r="C115" s="108">
+        <v>509.68</v>
+      </c>
+      <c r="D115" s="111" t="s">
+        <v>50</v>
+      </c>
       <c r="E115" s="116"/>
       <c r="F115" s="63"/>
     </row>
-    <row r="116" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="146" t="s">
-        <v>176</v>
-      </c>
-      <c r="D116" s="146"/>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="3"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="63"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="3"/>
+    <row r="117" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="107" t="s">
+        <v>24</v>
+      </c>
       <c r="C117" s="146" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="D117" s="146"/>
       <c r="E117" s="116"/>
       <c r="F117" s="63"/>
     </row>
-    <row r="118" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="3"/>
-      <c r="C118" s="146"/>
+      <c r="C118" s="146" t="s">
+        <v>64</v>
+      </c>
       <c r="D118" s="146"/>
       <c r="E118" s="116"/>
       <c r="F118" s="63"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="3"/>
       <c r="C119" s="146"/>
       <c r="D119" s="146"/>
-      <c r="F119" s="4"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="63"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B120" s="3"/>
-      <c r="C120" s="116"/>
-      <c r="D120" s="116"/>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B121" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" s="111" t="s">
-        <v>184</v>
-      </c>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="3"/>
+      <c r="C121" s="116"/>
       <c r="D121" s="116"/>
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B122" s="3"/>
-      <c r="C122" s="120">
-        <v>510</v>
-      </c>
-      <c r="D122" s="116" t="s">
+      <c r="B122" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" s="111" t="s">
         <v>183</v>
       </c>
+      <c r="D122" s="116"/>
       <c r="F122" s="4"/>
     </row>
     <row r="123" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B123" s="3"/>
-      <c r="C123" s="144">
-        <v>13.17</v>
+      <c r="C123" s="120">
+        <v>510</v>
       </c>
       <c r="D123" s="116" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B124" s="3"/>
-      <c r="C124" s="121">
-        <f>C122/C123</f>
+      <c r="C124" s="144">
+        <v>13.17</v>
+      </c>
+      <c r="D124" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B125" s="3"/>
+      <c r="C125" s="121">
+        <f>C123/C124</f>
         <v>38.724373576309794</v>
       </c>
-      <c r="D124" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="F124" s="4"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="3"/>
+      <c r="D125" s="111" t="s">
+        <v>177</v>
+      </c>
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B126" s="3"/>
-      <c r="C126" s="122">
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="3"/>
+      <c r="C127" s="122">
         <v>33.94</v>
       </c>
-      <c r="D126" s="33" t="s">
+      <c r="D127" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B128" s="3"/>
+      <c r="C128" s="122"/>
+      <c r="D128" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="F126" s="4"/>
-    </row>
-    <row r="127" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B127" s="3"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="116" t="s">
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="3"/>
+      <c r="C129" s="116"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B130" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B131" s="3"/>
+      <c r="C131" s="123">
+        <v>1498</v>
+      </c>
+      <c r="D131" s="116" t="s">
         <v>181</v>
-      </c>
-      <c r="F127" s="4"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="3"/>
-      <c r="C128" s="116"/>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B129" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="F129" s="4"/>
-    </row>
-    <row r="130" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B130" s="3"/>
-      <c r="C130" s="123">
-        <v>1498</v>
-      </c>
-      <c r="D130" s="116" t="s">
-        <v>182</v>
-      </c>
-      <c r="E130" s="116"/>
-      <c r="F130" s="63"/>
-    </row>
-    <row r="131" spans="2:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="B131" s="45"/>
-      <c r="C131" s="124"/>
-      <c r="D131" s="116" t="s">
-        <v>217</v>
       </c>
       <c r="E131" s="116"/>
       <c r="F131" s="63"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="3"/>
+    <row r="132" spans="2:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="B132" s="45"/>
       <c r="C132" s="124"/>
-      <c r="D132" s="116"/>
+      <c r="D132" s="116" t="s">
+        <v>216</v>
+      </c>
       <c r="E132" s="116"/>
       <c r="F132" s="63"/>
     </row>
-    <row r="133" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B133" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="124" t="s">
-        <v>185</v>
-      </c>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B133" s="3"/>
+      <c r="C133" s="124"/>
+      <c r="D133" s="116"/>
       <c r="E133" s="116"/>
       <c r="F133" s="63"/>
     </row>
     <row r="134" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B134" s="45"/>
-      <c r="C134" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="D134" s="116" t="s">
-        <v>186</v>
+      <c r="B134" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="124" t="s">
+        <v>184</v>
       </c>
       <c r="E134" s="116"/>
       <c r="F134" s="63"/>
     </row>
-    <row r="135" spans="2:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B135" s="45"/>
-      <c r="C135" s="124"/>
+      <c r="C135" s="125" t="s">
+        <v>186</v>
+      </c>
       <c r="D135" s="116" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E135" s="116"/>
       <c r="F135" s="63"/>
     </row>
-    <row r="136" spans="2:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:6" ht="56" x14ac:dyDescent="0.15">
       <c r="B136" s="45"/>
       <c r="C136" s="124"/>
       <c r="D136" s="116" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="E136" s="116"/>
       <c r="F136" s="63"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:6" ht="70" x14ac:dyDescent="0.15">
       <c r="B137" s="45"/>
       <c r="C137" s="124"/>
-      <c r="D137" s="116"/>
+      <c r="D137" s="116" t="s">
+        <v>187</v>
+      </c>
       <c r="E137" s="116"/>
       <c r="F137" s="63"/>
     </row>
@@ -3207,55 +3224,55 @@
       <c r="E138" s="116"/>
       <c r="F138" s="63"/>
     </row>
-    <row r="139" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B139" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" s="116" t="s">
-        <v>45</v>
-      </c>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B139" s="45"/>
+      <c r="C139" s="124"/>
       <c r="D139" s="116"/>
       <c r="E139" s="116"/>
       <c r="F139" s="63"/>
     </row>
-    <row r="140" spans="2:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="3"/>
-      <c r="C140" s="66">
-        <v>222730</v>
-      </c>
-      <c r="D140" s="116" t="s">
-        <v>168</v>
-      </c>
+    <row r="140" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B140" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" s="116"/>
       <c r="E140" s="116"/>
       <c r="F140" s="63"/>
     </row>
-    <row r="141" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B141" s="3"/>
-      <c r="C141" s="67">
-        <v>199382</v>
+      <c r="C141" s="66">
+        <v>222730</v>
       </c>
       <c r="D141" s="116" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="E141" s="116"/>
       <c r="F141" s="63"/>
     </row>
     <row r="142" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B142" s="3"/>
-      <c r="C142" s="61">
-        <f>(C140-C141)/C140</f>
-        <v>0.10482647151259372</v>
-      </c>
-      <c r="D142" s="111" t="s">
-        <v>169</v>
+      <c r="C142" s="67">
+        <v>199382</v>
+      </c>
+      <c r="D142" s="116" t="s">
+        <v>51</v>
       </c>
       <c r="E142" s="116"/>
       <c r="F142" s="63"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B143" s="45"/>
-      <c r="C143" s="124"/>
-      <c r="D143" s="116"/>
+    <row r="143" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B143" s="3"/>
+      <c r="C143" s="61">
+        <f>(C141-C142)/C141</f>
+        <v>0.10482647151259372</v>
+      </c>
+      <c r="D143" s="111" t="s">
+        <v>168</v>
+      </c>
       <c r="E143" s="116"/>
       <c r="F143" s="63"/>
     </row>
@@ -3266,198 +3283,201 @@
       <c r="E144" s="116"/>
       <c r="F144" s="63"/>
     </row>
-    <row r="145" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B145" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="D145" s="10"/>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B145" s="45"/>
+      <c r="C145" s="124"/>
+      <c r="D145" s="116"/>
       <c r="E145" s="116"/>
       <c r="F145" s="63"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="3"/>
+    <row r="146" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B146" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146" s="10"/>
       <c r="E146" s="116"/>
       <c r="F146" s="63"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B147" s="3"/>
-      <c r="C147" s="26">
+      <c r="E147" s="116"/>
+      <c r="F147" s="63"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B148" s="3"/>
+      <c r="C148" s="26">
         <f>7793+205</f>
         <v>7998</v>
       </c>
-      <c r="D147" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="E147" s="116"/>
-      <c r="F147" s="63"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B148" s="3"/>
-      <c r="C148" s="58">
-        <v>1900</v>
-      </c>
-      <c r="D148" s="33" t="s">
-        <v>46</v>
+      <c r="D148" s="69" t="s">
+        <v>189</v>
       </c>
       <c r="E148" s="116"/>
       <c r="F148" s="63"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B149" s="3"/>
-      <c r="C149" s="62">
-        <f>C148+C147</f>
-        <v>9898</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>191</v>
+      <c r="C149" s="58">
+        <v>1900</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="E149" s="116"/>
       <c r="F149" s="63"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B150" s="3"/>
-      <c r="C150" s="127"/>
-      <c r="D150" s="34"/>
+      <c r="C150" s="62">
+        <f>C149+C148</f>
+        <v>9898</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="E150" s="116"/>
       <c r="F150" s="63"/>
     </row>
-    <row r="151" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B151" s="3"/>
-      <c r="C151" s="128" t="s">
-        <v>55</v>
-      </c>
+      <c r="C151" s="127"/>
+      <c r="D151" s="34"/>
       <c r="E151" s="116"/>
       <c r="F151" s="63"/>
     </row>
-    <row r="152" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B152" s="3"/>
-      <c r="C152" s="26">
-        <f>C149</f>
+      <c r="C152" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="E152" s="116"/>
+      <c r="F152" s="63"/>
+    </row>
+    <row r="153" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="3"/>
+      <c r="C153" s="26">
+        <f>C150</f>
         <v>9898</v>
       </c>
-      <c r="D152" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F152" s="4"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B153" s="3"/>
-      <c r="C153" s="58">
-        <v>226954</v>
-      </c>
       <c r="D153" s="33" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B154" s="3"/>
-      <c r="C154" s="29">
-        <f>C152/C153</f>
-        <v>4.3612361976435754E-2</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>54</v>
+      <c r="C154" s="58">
+        <v>226954</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="F154" s="4"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B155" s="3"/>
+      <c r="C155" s="29">
+        <f>C153/C154</f>
+        <v>4.3612361976435754E-2</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B156" s="54" t="s">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B156" s="3"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B157" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C156" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F156" s="4"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B157" s="3"/>
-      <c r="C157" s="26">
-        <v>7793</v>
-      </c>
-      <c r="D157" t="s">
-        <v>56</v>
+      <c r="C157" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="F157" s="4"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B158" s="3"/>
-      <c r="C158" s="58">
-        <v>226954</v>
-      </c>
-      <c r="D158" s="33" t="s">
-        <v>192</v>
+      <c r="C158" s="26">
+        <v>7793</v>
+      </c>
+      <c r="D158" t="s">
+        <v>55</v>
       </c>
       <c r="F158" s="4"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B159" s="3"/>
-      <c r="C159" s="29">
-        <f>C157/C158</f>
-        <v>3.4337354706240032E-2</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>57</v>
+      <c r="C159" s="58">
+        <v>226954</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="F159" s="4"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B160" s="3"/>
+      <c r="C160" s="29">
+        <f>C158/C159</f>
+        <v>3.4337354706240032E-2</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B161" s="3"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="2:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="B162" s="54" t="s">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B162" s="3"/>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="2:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="B163" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C162" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="F162" s="4"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B163" s="3"/>
-      <c r="C163" s="26">
-        <v>5844</v>
-      </c>
-      <c r="D163" t="s">
-        <v>59</v>
+      <c r="C163" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="F163" s="4"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B164" s="3"/>
-      <c r="C164" s="58">
-        <v>226954</v>
+      <c r="C164" s="26">
+        <v>5844</v>
       </c>
       <c r="D164" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F164" s="4"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B165" s="3"/>
-      <c r="C165" s="29">
-        <f>C163/C164</f>
-        <v>2.5749711395260715E-2</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>61</v>
+      <c r="C165" s="58">
+        <v>226954</v>
+      </c>
+      <c r="D165" t="s">
+        <v>59</v>
       </c>
       <c r="F165" s="4"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B166" s="3"/>
+      <c r="C166" s="29">
+        <f>C164/C165</f>
+        <v>2.5749711395260715E-2</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.15">
@@ -3465,145 +3485,143 @@
       <c r="F167" s="4"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B168" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C168" s="129" t="s">
-        <v>48</v>
-      </c>
+      <c r="B168" s="3"/>
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B169" s="3"/>
-      <c r="C169" s="62">
-        <v>7392</v>
-      </c>
-      <c r="D169" s="21" t="s">
-        <v>62</v>
+      <c r="B169" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" s="129" t="s">
+        <v>47</v>
       </c>
       <c r="F169" s="4"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B170" s="3"/>
-      <c r="C170" s="62"/>
-      <c r="D170" s="21"/>
+      <c r="C170" s="62">
+        <v>7392</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="F170" s="4"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="3"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="21"/>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B172" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172" s="33" t="s">
         <v>193</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="F171" s="4"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B172" s="3"/>
-      <c r="C172" s="27"/>
-      <c r="D172" s="33" t="s">
-        <v>74</v>
       </c>
       <c r="F172" s="4"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B173" s="3"/>
-      <c r="C173" s="130"/>
+      <c r="C173" s="27"/>
       <c r="D173" s="33" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="F173" s="4"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B174" s="3"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="34" t="s">
-        <v>71</v>
+      <c r="C174" s="130"/>
+      <c r="D174" s="33" t="s">
+        <v>195</v>
       </c>
       <c r="F174" s="4"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B175" s="3"/>
-      <c r="D175" s="33" t="s">
-        <v>72</v>
+      <c r="C175" s="57"/>
+      <c r="D175" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="F175" s="4"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B176" s="3"/>
-      <c r="C176" s="62"/>
-      <c r="D176" s="21"/>
+      <c r="D176" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="F176" s="4"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B177" s="3"/>
-      <c r="C177" s="26">
-        <v>7793</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>69</v>
-      </c>
+      <c r="C177" s="62"/>
+      <c r="D177" s="21"/>
       <c r="F177" s="4"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B178" s="3"/>
       <c r="C178" s="26">
-        <v>1900</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>73</v>
+        <v>7793</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="F178" s="4"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B179" s="3"/>
       <c r="C179" s="26">
-        <v>-3891</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>68</v>
+        <v>1900</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="F179" s="4"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B180" s="3"/>
       <c r="C180" s="26">
-        <f>-(0.246)*C177</f>
-        <v>-1917.078</v>
+        <v>-3891</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="F180" s="4"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B181" s="3"/>
-      <c r="C181" s="58">
-        <v>-1563</v>
+      <c r="C181" s="26">
+        <f>-(0.246)*C178</f>
+        <v>-1917.078</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="F181" s="4"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B182" s="3"/>
-      <c r="C182" s="62">
-        <f>SUM(C177:C181)</f>
-        <v>2321.922</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>209</v>
+      <c r="C182" s="58">
+        <v>-1563</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>218</v>
       </c>
       <c r="F182" s="4"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B183" s="3"/>
-      <c r="C183" s="62"/>
-      <c r="D183" s="21"/>
+      <c r="C183" s="62">
+        <f>SUM(C178:C182)</f>
+        <v>2321.922</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>208</v>
+      </c>
       <c r="F183" s="4"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.15">
@@ -3620,49 +3638,46 @@
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B186" s="3"/>
-      <c r="C186" s="57"/>
-      <c r="D186" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E186" s="28"/>
-      <c r="F186" s="64"/>
+      <c r="C186" s="62"/>
+      <c r="D186" s="21"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B187" s="3"/>
-      <c r="C187" s="26">
-        <v>7392</v>
-      </c>
+      <c r="C187" s="57"/>
       <c r="D187" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F187" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="E187" s="28"/>
+      <c r="F187" s="64"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B188" s="3"/>
-      <c r="C188" s="58">
-        <v>-3891</v>
+      <c r="C188" s="26">
+        <v>7392</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F188" s="4"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B189" s="3"/>
-      <c r="C189" s="62">
-        <f>C188+C187</f>
-        <v>3501</v>
-      </c>
-      <c r="D189" s="17" t="s">
+      <c r="C189" s="58">
+        <v>-3891</v>
+      </c>
+      <c r="D189" s="33" t="s">
         <v>66</v>
       </c>
       <c r="F189" s="4"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B190" s="3"/>
-      <c r="C190" s="57"/>
-      <c r="D190" s="33" t="s">
-        <v>70</v>
+      <c r="C190" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="F190" s="4"/>
     </row>
@@ -3670,134 +3685,138 @@
       <c r="B191" s="3"/>
       <c r="C191" s="57"/>
       <c r="D191" s="33" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F191" s="4"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B192" s="3"/>
       <c r="C192" s="57"/>
+      <c r="D192" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="F192" s="4"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B193" s="3"/>
       <c r="C193" s="57"/>
-      <c r="D193" s="33"/>
       <c r="F193" s="4"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B194" s="3"/>
       <c r="C194" s="57"/>
-      <c r="D194" s="33" t="s">
-        <v>221</v>
-      </c>
+      <c r="D194" s="33"/>
       <c r="F194" s="4"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B195" s="3"/>
       <c r="C195" s="57"/>
       <c r="D195" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F195" s="4"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B196" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C196" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D196" s="33"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="33" t="s">
+        <v>221</v>
+      </c>
       <c r="F196" s="4"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B197" s="3"/>
-      <c r="C197" s="26">
+      <c r="B197" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D197" s="33"/>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="3"/>
+      <c r="C198" s="26">
         <v>2241</v>
       </c>
-      <c r="D197" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="F197" s="4"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B198" s="11"/>
-      <c r="C198" s="58">
+      <c r="D198" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B199" s="11"/>
+      <c r="C199" s="58">
         <v>226954</v>
       </c>
-      <c r="D198" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="F198" s="4"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B199" s="7"/>
-      <c r="C199" s="115">
-        <f>(365*C197)/C198</f>
-        <v>3.6041003903874795</v>
-      </c>
-      <c r="D199" s="132" t="s">
+      <c r="D199" s="131" t="s">
         <v>223</v>
       </c>
       <c r="F199" s="4"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B200" s="7"/>
+      <c r="C200" s="115">
+        <f>(365*C198)/C199</f>
+        <v>3.6041003903874795</v>
+      </c>
+      <c r="D200" s="132" t="s">
+        <v>222</v>
+      </c>
       <c r="F200" s="4"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B201" s="7"/>
-      <c r="C201" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="F201" s="4"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B202" s="7"/>
-      <c r="C202" s="26">
-        <v>17848</v>
-      </c>
-      <c r="D202" s="112" t="s">
-        <v>79</v>
+      <c r="C202" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="F202" s="4"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B203" s="7"/>
-      <c r="C203" s="58">
-        <v>199382</v>
-      </c>
-      <c r="D203" s="33" t="s">
-        <v>225</v>
+      <c r="C203" s="26">
+        <v>17848</v>
+      </c>
+      <c r="D203" s="112" t="s">
+        <v>78</v>
       </c>
       <c r="F203" s="4"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B204" s="7"/>
-      <c r="C204" s="115">
-        <f>(365*C202)/C203</f>
-        <v>32.673561304430692</v>
-      </c>
-      <c r="D204" s="132" t="s">
-        <v>76</v>
+      <c r="C204" s="58">
+        <v>199382</v>
+      </c>
+      <c r="D204" s="33" t="s">
+        <v>224</v>
       </c>
       <c r="F204" s="4"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B205" s="7"/>
-      <c r="C205" s="26"/>
+      <c r="C205" s="115">
+        <f>(365*C203)/C204</f>
+        <v>32.673561304430692</v>
+      </c>
+      <c r="D205" s="132" t="s">
+        <v>75</v>
+      </c>
       <c r="F205" s="4"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B206" s="7"/>
-      <c r="C206" s="33" t="s">
-        <v>205</v>
-      </c>
+      <c r="C206" s="26"/>
       <c r="F206" s="4"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B207" s="3"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="33" t="s">
+        <v>204</v>
+      </c>
       <c r="F207" s="4"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.15">
@@ -3805,43 +3824,34 @@
       <c r="F208" s="4"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B209" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>201</v>
-      </c>
+      <c r="B209" s="3"/>
       <c r="F209" s="4"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B210" s="3"/>
-      <c r="C210" s="26">
-        <v>5844</v>
-      </c>
-      <c r="D210" s="33" t="s">
-        <v>204</v>
+      <c r="B210" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="F210" s="4"/>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B211" s="3"/>
-      <c r="C211" s="58">
-        <v>20647</v>
+      <c r="C211" s="26">
+        <v>5844</v>
       </c>
       <c r="D211" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="E211" s="33"/>
-      <c r="F211" s="133"/>
-      <c r="G211" s="33"/>
+      <c r="F211" s="4"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B212" s="3"/>
-      <c r="C212" s="28">
-        <f>C210/C211</f>
-        <v>0.28304354143459098</v>
-      </c>
-      <c r="D212" s="17" t="s">
+      <c r="C212" s="58">
+        <v>20647</v>
+      </c>
+      <c r="D212" s="33" t="s">
         <v>202</v>
       </c>
       <c r="E212" s="33"/>
@@ -3850,78 +3860,85 @@
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B213" s="3"/>
-      <c r="D213" s="33"/>
+      <c r="C213" s="28">
+        <f>C211/C212</f>
+        <v>0.28304354143459098</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>201</v>
+      </c>
       <c r="E213" s="33"/>
       <c r="F213" s="133"/>
       <c r="G213" s="33"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B214" s="45"/>
-      <c r="C214" s="129"/>
+      <c r="B214" s="3"/>
       <c r="D214" s="33"/>
       <c r="E214" s="33"/>
       <c r="F214" s="133"/>
       <c r="G214" s="33"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B215" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C215" s="62" t="s">
-        <v>206</v>
-      </c>
+      <c r="B215" s="45"/>
+      <c r="C215" s="129"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33"/>
       <c r="F215" s="133"/>
       <c r="G215" s="33"/>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B216" s="3"/>
-      <c r="C216" s="26">
-        <v>5844</v>
-      </c>
-      <c r="D216" s="33" t="s">
-        <v>208</v>
-      </c>
+      <c r="B216" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C216" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D216" s="33"/>
       <c r="E216" s="33"/>
       <c r="F216" s="133"/>
       <c r="G216" s="33"/>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B217" s="3"/>
-      <c r="C217" s="58">
-        <f>24646+2774+4050+698</f>
-        <v>32168</v>
+      <c r="C217" s="26">
+        <v>5844</v>
       </c>
       <c r="D217" s="33" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E217" s="33"/>
       <c r="F217" s="133"/>
       <c r="G217" s="33"/>
     </row>
-    <row r="218" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="48"/>
-      <c r="C218" s="134">
-        <f>C216/C217</f>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B218" s="3"/>
+      <c r="C218" s="58">
+        <f>24646+2774+4050+698</f>
+        <v>32168</v>
+      </c>
+      <c r="D218" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E218" s="33"/>
+      <c r="F218" s="133"/>
+      <c r="G218" s="33"/>
+    </row>
+    <row r="219" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="48"/>
+      <c r="C219" s="134">
+        <f>C217/C218</f>
         <v>0.18167122606316838</v>
       </c>
-      <c r="D218" s="135" t="s">
-        <v>207</v>
-      </c>
-      <c r="E218" s="136"/>
-      <c r="F218" s="137"/>
-      <c r="G218" s="33"/>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B219" s="11"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
+      <c r="D219" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="E219" s="136"/>
+      <c r="F219" s="137"/>
       <c r="G219" s="33"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B220" s="11"/>
+      <c r="C220" s="27"/>
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
       <c r="F220" s="33"/>
@@ -3939,27 +3956,33 @@
       <c r="F222" s="33"/>
       <c r="G222" s="33"/>
     </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G238" s="28"/>
-      <c r="H238" s="28"/>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B256" s="8"/>
-      <c r="C256" s="15"/>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+    </row>
+    <row r="239" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G239" s="28"/>
+      <c r="H239" s="28"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B257" s="8"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="15"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B258" s="14"/>
-      <c r="C258" s="20"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="13"/>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B259" s="14"/>
+      <c r="C259" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="C117:D119"/>
-    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="C118:D120"/>
+    <mergeCell ref="C117:D117"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3997,7 +4020,7 @@
     <row r="3" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4005,12 +4028,12 @@
     </row>
     <row r="9" spans="2:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C9" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="73">
         <v>500000</v>
@@ -4018,14 +4041,14 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="31">
         <f>0.07/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
@@ -4047,16 +4070,16 @@
     </row>
     <row r="15" spans="2:6" ht="28" x14ac:dyDescent="0.15">
       <c r="C15" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="E15" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="F15" s="51" t="s">
         <v>91</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -4824,33 +4847,33 @@
     <row r="54" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="17"/>
       <c r="C55" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="77">
         <f>500000</f>
         <v>500000</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" s="78">
         <f>0.07/12</f>
         <v>5.8333333333333336E-3</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="17"/>
       <c r="C56" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" s="77">
         <f>0.03*500000</f>
@@ -4866,14 +4889,14 @@
     <row r="57" spans="2:7" ht="42" x14ac:dyDescent="0.15">
       <c r="B57" s="17"/>
       <c r="C57" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="77">
         <f>D55-D56</f>
         <v>485000</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57" s="8">
         <v>36</v>
@@ -4898,10 +4921,10 @@
         <v>485000</v>
       </c>
       <c r="D60" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -4921,7 +4944,7 @@
         <v>483634.81556176924</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.15">
@@ -5239,7 +5262,7 @@
         <v>-486961.32803766517</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
@@ -5247,31 +5270,31 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="86">
         <f>IRR(C60:C96,0.05)</f>
         <v>6.7895022416850637E-3</v>
       </c>
       <c r="D98" s="87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="28" x14ac:dyDescent="0.15">
       <c r="B99" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="88">
         <f>C98*12</f>
         <v>8.1474026900220764E-2</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D100" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
